--- a/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>77,73%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>67,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>71,8%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>69,01%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>68,71%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>55,64%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>68,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>52,62%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>73,89%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>43,15; 74,66</t>
+          <t>62,44; 89,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,79; 82,5</t>
+          <t>50,83; 82,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 74,97</t>
+          <t>29,65; 72,43</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>57,61; 85,06</t>
+          <t>50,1; 84,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,53; 78,02</t>
+          <t>52,59; 84,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,85; 82,43</t>
+          <t>53,86; 82,25</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,55; 84,73</t>
+          <t>32,44; 74,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>60,52; 86,68</t>
+          <t>51,76; 93,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>49,47; 73,88</t>
+          <t>63,15; 83,88</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,96; 79,61</t>
+          <t>55,96; 77,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>41,58; 72,46</t>
+          <t>37,56; 69,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>64,37; 82,89</t>
+          <t>59,05; 84,63</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>60,79%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>70,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>71,94%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>60,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>67,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>66,13%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>60,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>69,28%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>58,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>73,71%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>62,44; 89,91</t>
+          <t>43,15; 74,66</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>50,83; 82,78</t>
+          <t>57,79; 82,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,65; 72,43</t>
+          <t>32,07; 74,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>50,1; 84,87</t>
+          <t>57,61; 85,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,59; 84,8</t>
+          <t>38,53; 78,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>53,86; 82,25</t>
+          <t>49,85; 82,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>32,44; 74,97</t>
+          <t>43,55; 84,73</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>51,76; 93,52</t>
+          <t>60,52; 86,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>63,15; 83,88</t>
+          <t>49,47; 73,88</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>55,96; 77,35</t>
+          <t>58,96; 79,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37,56; 69,11</t>
+          <t>41,58; 72,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>59,05; 84,63</t>
+          <t>64,37; 82,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>63,92%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,16%</t>
+          <t>37,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>65,91%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>54,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>65,4%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>60,84%</t>
+          <t>47,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>46,09%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>62,08%</t>
+          <t>54,34%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>64,47%</t>
+          <t>40,91%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55,11%</t>
+          <t>42,1%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>45,18%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,33%</t>
+          <t>54,68%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>50,16; 77,27</t>
+          <t>21,22; 64,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>37,26; 62,95</t>
+          <t>21,05; 54,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 81,53</t>
+          <t>29,08; 75,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>36,84; 70,78</t>
+          <t>32,24; 79,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>46,31; 82,65</t>
+          <t>15,61; 67,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,04; 73,76</t>
+          <t>29,58; 65,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,19; 65,24</t>
+          <t>15,47; 60,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,07; 79,02</t>
+          <t>25,75; 79,29</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>53,26; 74,76</t>
+          <t>24,47; 58,41</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>45,93; 65,16</t>
+          <t>30,33; 55,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,93; 68,75</t>
+          <t>28,42; 62,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>42,85; 68,81</t>
+          <t>38,11; 71,1</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>77,73%</t>
+          <t>81,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>67,4%</t>
+          <t>67,52%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>49,56%</t>
+          <t>62,23%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>71,8%</t>
+          <t>64,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>69,01%</t>
+          <t>80,39%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,71%</t>
+          <t>79,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>64,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,24%</t>
+          <t>70,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>68,03%</t>
+          <t>72,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>52,62%</t>
+          <t>63,21%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>73,89%</t>
+          <t>66,51%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>62,44; 89,91</t>
+          <t>69,76; 90,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>50,83; 82,78</t>
+          <t>52,46; 78,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>29,65; 72,43</t>
+          <t>43,47; 78,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>50,1; 84,87</t>
+          <t>47,77; 78,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,59; 84,8</t>
+          <t>63,35; 92,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>53,86; 82,25</t>
+          <t>65,77; 90,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,44; 74,97</t>
+          <t>44,26; 81,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,76; 93,52</t>
+          <t>41,1; 89,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63,15; 83,88</t>
+          <t>72,06; 89,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>55,96; 77,35</t>
+          <t>61,92; 81,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,56; 69,11</t>
+          <t>50,16; 74,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>59,05; 84,63</t>
+          <t>51,5; 78,26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>72,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>70,75%</t>
+          <t>68,14%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>74,26%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>71,94%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,12%</t>
+          <t>54,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>67,24%</t>
+          <t>58,82%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,13%</t>
+          <t>51,99%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>75,9%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>60,54%</t>
+          <t>63,72%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>69,28%</t>
+          <t>62,78%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>61,22%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>72,34%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>43,15; 74,66</t>
+          <t>53,39; 89,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>57,79; 82,5</t>
+          <t>46,23; 86,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,07; 74,97</t>
+          <t>36,25; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>57,61; 85,06</t>
+          <t>45,89; 82,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>38,53; 78,02</t>
+          <t>32,83; 75,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>49,85; 82,43</t>
+          <t>40,33; 76,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,55; 84,73</t>
+          <t>19,63; 76,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,52; 86,68</t>
+          <t>55,63; 94,26</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,47; 73,88</t>
+          <t>49,21; 76,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>58,96; 79,61</t>
+          <t>48,23; 75,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>41,58; 72,46</t>
+          <t>39,49; 81,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>64,37; 82,89</t>
+          <t>58,77; 83,12</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>56,31%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>61,63%</t>
+          <t>70,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>56,99%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>67,8%</t>
+          <t>74,48%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,34%</t>
+          <t>67,43%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>65,11%</t>
+          <t>71,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>61,01%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>76,18%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>66,56%</t>
+          <t>59,73%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>63,21%</t>
+          <t>70,72%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>56,14%</t>
+          <t>51,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>75,2%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>58,47; 75,05</t>
+          <t>34,06; 74,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>54,12; 70,26</t>
+          <t>53,01; 84,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>45,52; 68,46</t>
+          <t>22,73; 72,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>58,56; 76,4</t>
+          <t>57,08; 89,22</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>54,32; 74,63</t>
+          <t>40,89; 91,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,68; 73,21</t>
+          <t>45,38; 86,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,92; 66,39</t>
+          <t>34,91; 83,16</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>63,95; 82,03</t>
+          <t>59,49; 89,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,18; 73,77</t>
+          <t>43,92; 75,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,92; 68,92</t>
+          <t>56,78; 81,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>47,09; 63,67</t>
+          <t>34,28; 69,97</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,11; 76,86</t>
+          <t>63,33; 84,8</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>67,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>61,63%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56,99%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>67,8%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>65,34%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>65,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>55,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>73,61%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66,56%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>63,21%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>56,14%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58,22; 75,23</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>52,55; 69,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>45,35; 67,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>58,01; 76,22</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>54,33; 75,04</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>56,62; 73,63</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>42,93; 66,61</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>63,65; 82,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>59,38; 73,1</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>56,37; 68,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>47,28; 63,4</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>62,91; 76,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,22; 64,61</t>
+          <t>20,18; 61,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 54,66</t>
+          <t>21,84; 55,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,08; 75,26</t>
+          <t>30,32; 75,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,24; 79,11</t>
+          <t>32,03; 76,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,61; 67,94</t>
+          <t>18,7; 71,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>29,58; 65,93</t>
+          <t>30,3; 65,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,47; 60,58</t>
+          <t>15,6; 59,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,75; 79,29</t>
+          <t>29,3; 81,18</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 58,41</t>
+          <t>26,14; 59,04</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,33; 55,93</t>
+          <t>30,19; 55,15</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,42; 62,47</t>
+          <t>28,12; 61,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>38,11; 71,1</t>
+          <t>36,98; 71,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,76; 90,75</t>
+          <t>69,67; 89,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,46; 78,65</t>
+          <t>52,46; 78,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,47; 78,62</t>
+          <t>42,6; 78,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,77; 78,82</t>
+          <t>47,5; 79,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>63,35; 92,14</t>
+          <t>62,73; 91,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,77; 90,58</t>
+          <t>65,1; 89,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,26; 81,68</t>
+          <t>44,84; 79,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>41,1; 89,43</t>
+          <t>43,34; 89,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>72,06; 89,15</t>
+          <t>71,4; 89,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>61,92; 81,21</t>
+          <t>62,31; 80,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,16; 74,93</t>
+          <t>48,57; 74,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>51,5; 78,26</t>
+          <t>52,7; 78,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,39; 89,88</t>
+          <t>47,89; 87,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,23; 86,71</t>
+          <t>46,29; 85,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,25; 100,0</t>
+          <t>35,28; 100,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>45,89; 82,25</t>
+          <t>44,04; 81,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>32,83; 75,19</t>
+          <t>31,03; 74,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,33; 76,43</t>
+          <t>41,14; 76,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,63; 76,93</t>
+          <t>24,73; 81,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>55,63; 94,26</t>
+          <t>56,52; 94,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>49,21; 76,61</t>
+          <t>47,92; 77,84</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>48,23; 75,06</t>
+          <t>49,97; 76,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,49; 81,79</t>
+          <t>35,98; 81,88</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>58,77; 83,12</t>
+          <t>56,76; 83,5</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>34,06; 74,17</t>
+          <t>37,98; 75,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,01; 84,7</t>
+          <t>53,11; 83,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 72,09</t>
+          <t>18,59; 70,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 89,22</t>
+          <t>56,67; 88,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,89; 91,76</t>
+          <t>35,22; 91,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>45,38; 86,2</t>
+          <t>46,16; 86,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,91; 83,16</t>
+          <t>34,19; 82,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>59,49; 89,02</t>
+          <t>58,34; 87,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>43,92; 75,07</t>
+          <t>44,45; 74,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,78; 81,28</t>
+          <t>56,65; 81,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>34,28; 69,97</t>
+          <t>33,69; 69,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>63,33; 84,8</t>
+          <t>64,45; 85,87</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,22; 75,23</t>
+          <t>58,56; 75,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>52,55; 69,25</t>
+          <t>53,24; 70,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,35; 67,82</t>
+          <t>45,7; 68,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>58,01; 76,22</t>
+          <t>57,56; 77,02</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,33; 75,04</t>
+          <t>54,53; 75,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,62; 73,63</t>
+          <t>55,43; 72,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,93; 66,61</t>
+          <t>42,09; 66,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,65; 82,22</t>
+          <t>63,35; 82,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>59,38; 73,1</t>
+          <t>60,22; 72,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,37; 68,87</t>
+          <t>56,93; 68,88</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,28; 63,4</t>
+          <t>47,38; 64,13</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>62,91; 76,79</t>
+          <t>63,14; 77,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP09B01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,13 +534,13 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que les afecta al nivel de asistencia al cole/guardería dicha enfermedad, dolencia..</t>
+          <t>Menores según si dicha enfermedad o dolencia continuada le ha afectado al nivel de asistencia al cole/guardería</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>41,82%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47,37%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>34,25%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>55,2%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>40,29%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>37,15%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>53,56%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>54,95%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>41,82%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>47,37%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>34,25%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>54,34%</t>
+          <t>54,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>54,68%</t>
+          <t>54,57%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,18; 61,19</t>
+          <t>18,4; 67,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,84; 55,48</t>
+          <t>29,99; 65,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,32; 75,05</t>
+          <t>15,51; 59,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,03; 76,08</t>
+          <t>27,05; 80,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,7; 71,3</t>
+          <t>20,15; 64,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,3; 65,85</t>
+          <t>21,16; 55,43</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,6; 59,58</t>
+          <t>29,82; 75,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 81,18</t>
+          <t>29,99; 77,84</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>26,14; 59,04</t>
+          <t>23,05; 58,99</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,19; 55,15</t>
+          <t>30,9; 55,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>28,12; 61,6</t>
+          <t>29,53; 60,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>36,98; 71,58</t>
+          <t>37,78; 72,78</t>
         </is>
       </c>
     </row>
@@ -796,44 +796,44 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>80,39%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>79,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>64,32%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>72,22%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>81,19%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>67,52%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>62,23%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>64,63%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>80,39%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>79,54%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>64,32%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>70,71%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
           <t>80,87%</t>
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>66,51%</t>
+          <t>66,62%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>69,67; 89,01</t>
+          <t>64,04; 93,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,46; 78,82</t>
+          <t>65,56; 88,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,6; 78,35</t>
+          <t>44,2; 79,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>47,5; 79,91</t>
+          <t>40,95; 90,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>62,73; 91,16</t>
+          <t>67,99; 90,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,1; 89,14</t>
+          <t>53,22; 78,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,84; 79,79</t>
+          <t>43,4; 78,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,34; 89,87</t>
+          <t>46,06; 77,2</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>71,4; 89,18</t>
+          <t>71,88; 88,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>62,31; 80,79</t>
+          <t>62,9; 81,13</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>48,57; 74,5</t>
+          <t>50,24; 75,08</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>52,7; 78,9</t>
+          <t>51,89; 78,8</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>54,0%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>58,82%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>51,99%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>81,51%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>72,58%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>68,14%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>74,26%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>66,01%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>54,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>58,82%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>51,99%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>65,62%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>72,34%</t>
+          <t>72,24%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>47,89; 87,06</t>
+          <t>31,73; 74,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>46,29; 85,52</t>
+          <t>40,61; 76,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,28; 100,0</t>
+          <t>23,36; 82,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,04; 81,47</t>
+          <t>58,61; 94,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,03; 74,11</t>
+          <t>50,91; 87,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>41,14; 76,93</t>
+          <t>46,28; 86,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>24,73; 81,02</t>
+          <t>35,57; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>56,52; 94,37</t>
+          <t>44,59; 82,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,92; 77,84</t>
+          <t>47,2; 77,64</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>49,97; 76,64</t>
+          <t>49,04; 75,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35,98; 81,88</t>
+          <t>37,94; 79,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>56,76; 83,5</t>
+          <t>58,58; 84,43</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>67,43%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>71,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61,01%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>79,26%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>56,31%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>70,49%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>42,64%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>74,48%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>67,43%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>71,13%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>61,01%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76,18%</t>
+          <t>78,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>78,54%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>37,98; 75,05</t>
+          <t>38,8; 92,06</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>53,11; 83,65</t>
+          <t>46,3; 86,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,59; 70,07</t>
+          <t>34,82; 82,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>56,67; 88,59</t>
+          <t>61,83; 91,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>35,22; 91,55</t>
+          <t>37,62; 73,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,16; 86,16</t>
+          <t>50,71; 82,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,19; 82,49</t>
+          <t>18,53; 64,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>58,34; 87,61</t>
+          <t>61,27; 92,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>44,45; 74,83</t>
+          <t>42,98; 75,25</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>56,65; 81,6</t>
+          <t>56,95; 80,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>33,69; 69,84</t>
+          <t>34,12; 68,87</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>64,45; 85,87</t>
+          <t>67,13; 88,64</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>65,34%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>65,11%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>55,21%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>75,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>67,38%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>61,63%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>56,99%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>67,8%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>65,34%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>65,11%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>55,21%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>73,61%</t>
+          <t>69,19%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>70,15%</t>
+          <t>71,75%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>58,56; 75,08</t>
+          <t>54,32; 74,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>53,24; 70,2</t>
+          <t>55,68; 73,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,7; 68,24</t>
+          <t>42,92; 66,39</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>57,56; 77,02</t>
+          <t>65,69; 83,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,53; 75,3</t>
+          <t>58,47; 75,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,43; 72,95</t>
+          <t>54,12; 70,26</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,09; 66,67</t>
+          <t>45,52; 68,46</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>63,35; 82,52</t>
+          <t>59,11; 79,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,22; 72,57</t>
+          <t>60,18; 73,77</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>56,93; 68,88</t>
+          <t>56,92; 68,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>47,38; 64,13</t>
+          <t>47,09; 63,67</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>63,14; 77,39</t>
+          <t>64,47; 79,49</t>
         </is>
       </c>
     </row>
